--- a/assets/path_upload/upload_objek_.xlsx
+++ b/assets/path_upload/upload_objek_.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$135</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="206">
   <si>
     <t>NAMA CHECKPOINT</t>
   </si>
@@ -39,28 +42,601 @@
     <t>LAMPU</t>
   </si>
   <si>
-    <t>PINTU UTARA</t>
-  </si>
-  <si>
-    <t>PARIMETER_CKD PPL</t>
-  </si>
-  <si>
-    <t>PARIMETER_INBOUND PPL</t>
+    <t>PLANT 5</t>
+  </si>
+  <si>
+    <t>CRITICAL AREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAS STATION </t>
+  </si>
+  <si>
+    <t>Gas station area sub press</t>
+  </si>
+  <si>
+    <t>APAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APAR area Substation press (dekat pintu pagar BRC) </t>
+  </si>
+  <si>
+    <t>Hydrant no. 07 &amp; 08 Substation press</t>
+  </si>
+  <si>
+    <t>Critical Area_Substation Welding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrant no. 09 ( Walkway ) Substation Welding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APAR area Substation Welding (dekat pintu pagar BRC) </t>
+  </si>
+  <si>
+    <t>Critical Area_POM mini Quality / Audit</t>
+  </si>
+  <si>
+    <t>BBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBM POM mini Quality </t>
+  </si>
+  <si>
+    <t>APAR area Sebelah barat laut POM mini Quality</t>
+  </si>
+  <si>
+    <t>Hydrant area Sebelah barat laut POM mini Quality</t>
+  </si>
+  <si>
+    <t>Critical Area_Substation Assy</t>
+  </si>
+  <si>
+    <t>COOLING TOWER</t>
+  </si>
+  <si>
+    <t>Cooling tower sebelah utara sub assy</t>
+  </si>
+  <si>
+    <t>Hydrant no. 25 Substation Assy</t>
+  </si>
+  <si>
+    <t>APAR area Sebelah kiri pintu pagar Substation Assy</t>
+  </si>
+  <si>
+    <t>Critical Area_Pertamax</t>
+  </si>
+  <si>
+    <t>BBM Area Pertamax</t>
+  </si>
+  <si>
+    <t>Walkway seberang jalan (Hydrant no.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APAR area Pertamax (dekat pintu pagar BRC) </t>
+  </si>
+  <si>
+    <t>Critical Area_Substation RND / Gardu PLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARDU PLN </t>
+  </si>
+  <si>
+    <t>Area Gardu PLN</t>
+  </si>
+  <si>
+    <t>TANGKI NITROGEN</t>
+  </si>
+  <si>
+    <t>Tangki nitrogen sebelah utara gardu PLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUND TANK / AIR BERSIH </t>
+  </si>
+  <si>
+    <t>Ground tank sebelah utara gardu PLN</t>
+  </si>
+  <si>
+    <t>Hydrant sebelah barat  Gardu PLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APAR substation RND (dekat pintu pagar BRC) </t>
+  </si>
+  <si>
+    <t>Critical Area_Cooling tower  RnD</t>
+  </si>
+  <si>
+    <t>Cooling tower  RnD</t>
+  </si>
+  <si>
+    <t>APAR pintu samping gedung Engineering</t>
+  </si>
+  <si>
+    <t>Critical Area_Solar / Genset</t>
+  </si>
+  <si>
+    <t>BBM Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENSET </t>
+  </si>
+  <si>
+    <t>Genset Sebelah utara Solar</t>
+  </si>
+  <si>
+    <t>Coling tower Sebelah utara Solar</t>
+  </si>
+  <si>
+    <t>Hydrant Sebelah timur Solar</t>
+  </si>
+  <si>
+    <t>APAR area solar (dekat pintu pagar BRC)</t>
+  </si>
+  <si>
+    <t>Critical Area_Samator / TPS</t>
+  </si>
+  <si>
+    <t>Gas Station Area samator</t>
+  </si>
+  <si>
+    <t>Cooling Tower sebelah selatan Samator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrant no.36  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTORY </t>
+  </si>
+  <si>
+    <t>Factory_Press Utara</t>
+  </si>
+  <si>
+    <t>Lampu area dalam</t>
+  </si>
+  <si>
+    <t>DOOR</t>
+  </si>
+  <si>
+    <t>Gate in/out orang &amp; rolling door Press Utara</t>
+  </si>
+  <si>
+    <t>APAR area Press Utara (Area reciving)</t>
+  </si>
+  <si>
+    <t>Hydrant area Press Utara (Area reciving)</t>
+  </si>
+  <si>
+    <t>Factory_Press Selatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANEL LISTRIK </t>
+  </si>
+  <si>
+    <t>Panel listrik area Press Selatan (Area reciving)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESIN PRODUKSI </t>
+  </si>
+  <si>
+    <t>Mesin area Press Selatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOOR </t>
+  </si>
+  <si>
+    <t>Gate perbatasan welding</t>
+  </si>
+  <si>
+    <t>Apar area Press Selatan</t>
+  </si>
+  <si>
+    <t>Hydrant area press selatan</t>
+  </si>
+  <si>
+    <t>Factory_ Welding Office CKD</t>
+  </si>
+  <si>
+    <t>Panel area Welding Office CKD</t>
+  </si>
+  <si>
+    <t>Mesin spot gun las</t>
+  </si>
+  <si>
+    <t>Lampu sekitar office ckd welding</t>
+  </si>
+  <si>
+    <t>In/out Welding CKD</t>
+  </si>
+  <si>
+    <t>Apar area Welding Office CKD (Tiang dekat mushola)</t>
+  </si>
+  <si>
+    <t>Hydrant area Welding Office CKD (Tembok dekat rolling door)</t>
+  </si>
+  <si>
+    <t>Factory_Assembling Office Log</t>
+  </si>
+  <si>
+    <t>Panel area Assembling Office Log</t>
+  </si>
+  <si>
+    <t>Mesin jalur Assembling Office Log</t>
+  </si>
+  <si>
+    <t>Lampu sekitar Assembling Office Log</t>
+  </si>
+  <si>
+    <t>In/out Assembling Office Log ( rolling door)</t>
+  </si>
+  <si>
+    <t>Apar area Assembling Office Log (Area dalam)</t>
+  </si>
+  <si>
+    <t>Hydrant area Assembling Office Log (Area dalam)</t>
+  </si>
+  <si>
+    <t>Factory_Assembling Benchtry</t>
+  </si>
+  <si>
+    <t>Panel listrik area sebelah barat Benchtry</t>
+  </si>
+  <si>
+    <t>Mesin depang  Benchtry</t>
+  </si>
+  <si>
+    <t>Lampu luar sekitar benchtry</t>
+  </si>
+  <si>
+    <t>Pintu whitesheet</t>
+  </si>
+  <si>
+    <t>Hydrant area Assembling Benchtry ( Sebelah Selatan Whitesheet )</t>
+  </si>
+  <si>
+    <t>Apar area Assembling Benchtry ( Sebelah Selatan Whitesheet )</t>
+  </si>
+  <si>
+    <t>OFFICE</t>
+  </si>
+  <si>
+    <t>Office_Central Office Lantai 1</t>
+  </si>
+  <si>
+    <t>Pintu Central Office Lantai 1</t>
+  </si>
+  <si>
+    <t>Lampu Central Office Lantai 1</t>
+  </si>
+  <si>
+    <t>PANEL LISTRIK</t>
+  </si>
+  <si>
+    <t>Panel listrik ruang gudang GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC </t>
+  </si>
+  <si>
+    <t>AC ruangan CO lantai 1</t>
+  </si>
+  <si>
+    <t>Apar area Central Office Lantai 1 (Pintu ke assy)</t>
+  </si>
+  <si>
+    <t>Office_Central Office lantai 2</t>
+  </si>
+  <si>
+    <t>Pintu Central Office lantai 2</t>
+  </si>
+  <si>
+    <t>Lampu Central Office lantai 2</t>
+  </si>
+  <si>
+    <t>Central Office lantai 2 (AC office)</t>
+  </si>
+  <si>
+    <t>Apar area Central Office lantai 2 (dekat pintu belakang ke assy)</t>
+  </si>
+  <si>
+    <t>Hydrant area Central Office lantai 2 (dekat pintu belakang ke assy)</t>
+  </si>
+  <si>
+    <t>Panel listrik area Central Office lantai 2 (dalam pantri)</t>
+  </si>
+  <si>
+    <t>Office_RND Engineering</t>
+  </si>
+  <si>
+    <t>Pintu in/out gedung engineering</t>
+  </si>
+  <si>
+    <t>RND Engineering (Lampu ruang engineering)</t>
+  </si>
+  <si>
+    <t>RND Engineering (Ac ruang engineering)</t>
+  </si>
+  <si>
+    <t>Apar area RND Engineering (Pintu masuk)</t>
+  </si>
+  <si>
+    <t>Office_RND Design</t>
+  </si>
+  <si>
+    <t>Pintu in/out gedung design</t>
+  </si>
+  <si>
+    <t>Panel listrik area Depan rest area</t>
+  </si>
+  <si>
+    <t>RND Design (Lampu ruang design)</t>
+  </si>
+  <si>
+    <t>RND Design (Ac ruang design)</t>
+  </si>
+  <si>
+    <t>Apar area RND Design (Pintu masuk)</t>
   </si>
   <si>
     <t>PARIMETER</t>
   </si>
   <si>
-    <t>PLANT 1</t>
-  </si>
-  <si>
-    <t>ADMP1PAR</t>
-  </si>
-  <si>
-    <t>PINTU</t>
-  </si>
-  <si>
-    <t>LAMPU PIJAR</t>
+    <t>Parimeter_Pos 3</t>
+  </si>
+  <si>
+    <t>GATE</t>
+  </si>
+  <si>
+    <t>Gerbang In/out Area POS 3</t>
+  </si>
+  <si>
+    <t>PAGAR</t>
+  </si>
+  <si>
+    <t>Pagar pembatas sekitar Gate 3 &amp; Perbatasan AI</t>
+  </si>
+  <si>
+    <t>Lampu PJU area Gate 3</t>
+  </si>
+  <si>
+    <t>GORONG - GORONG</t>
+  </si>
+  <si>
+    <t>gorong-gorong area sekitar POS 3</t>
+  </si>
+  <si>
+    <t>RAM PEMBATAS</t>
+  </si>
+  <si>
+    <t>Ram pembatas area sekitar POS 3</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>CCTV Area POS 3</t>
+  </si>
+  <si>
+    <t>Parimeter_Pos 2</t>
+  </si>
+  <si>
+    <t>Gerbang In/out Area POS 2</t>
+  </si>
+  <si>
+    <t>Pagar pembatas sepanjang POS 2 - POS 3</t>
+  </si>
+  <si>
+    <t>Lampu PJU area Gate 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gorong-gorong area sekitar POS 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram pembatas area sekitar POS 2 </t>
+  </si>
+  <si>
+    <t>CCTV Area POS 2</t>
+  </si>
+  <si>
+    <t>Parimeter_Pos 1</t>
+  </si>
+  <si>
+    <t>Gerbang In/out Area POS 1</t>
+  </si>
+  <si>
+    <t>Pagar pembatas Area POS 1</t>
+  </si>
+  <si>
+    <t>Lampu PJU area POS 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorong - gorong  pembatas sepanjang depan POS 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram pembatas sepanjang depan POS 1 </t>
+  </si>
+  <si>
+    <t>CCTV depan area POS 1</t>
+  </si>
+  <si>
+    <t>Hydrant Area POS 1 ( Depan Pos 1 )</t>
+  </si>
+  <si>
+    <t>Parimeter_Paddock</t>
+  </si>
+  <si>
+    <t>Pintu in/out gedung paddock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGAR </t>
+  </si>
+  <si>
+    <t>Pagar pembatas luar area Paddock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPU </t>
+  </si>
+  <si>
+    <t>Lampu sorot area Paddock</t>
+  </si>
+  <si>
+    <t>Gorong - gorong area Paddock ( samping pagar )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTV </t>
+  </si>
+  <si>
+    <t>CCTV Paddock ( sebelah timur )</t>
+  </si>
+  <si>
+    <t>Apar area Paddock (Selatan gedung paddock)</t>
+  </si>
+  <si>
+    <t>Hydrant area Paddock (Selatan gedung paddock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARKING SYSTEM </t>
+  </si>
+  <si>
+    <t>Parking Sistem area In / out Jembatan Testcourse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagar sekitar Menara 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lampu sorot Menara 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorong - gorong sekitar Menara 2 </t>
+  </si>
+  <si>
+    <t>Parimeter_Perbatasan AI / Soil Road</t>
+  </si>
+  <si>
+    <t>Pagar perbatasan AI / soil road</t>
+  </si>
+  <si>
+    <t>Lampu sorot Perbatasan AI / Soil Road</t>
+  </si>
+  <si>
+    <t>Gorong - gorong Perbatasan AI / Soil Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parimeter_Jalan Baru </t>
+  </si>
+  <si>
+    <t>Pagar perbatasan welding</t>
+  </si>
+  <si>
+    <t>Lampu PJU area jalan baru</t>
+  </si>
+  <si>
+    <t>Gorong - gorong area jalan baru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAM PEMBATAS </t>
+  </si>
+  <si>
+    <t>Ram pembatas area jalan baru</t>
+  </si>
+  <si>
+    <t>FASUM</t>
+  </si>
+  <si>
+    <t>Fasum_Loker Karyawan</t>
+  </si>
+  <si>
+    <t>Lampu Loker Karyawan</t>
+  </si>
+  <si>
+    <t>Panel listrik area Dekat bluemart</t>
+  </si>
+  <si>
+    <t>Apar area Loker Karyawan (area dalam loker)</t>
+  </si>
+  <si>
+    <t>Hydrant area Loker Karyawan area luar (Hydrant no. 13)</t>
+  </si>
+  <si>
+    <t>TURNSTILE</t>
+  </si>
+  <si>
+    <t>Turnstile body check in out karyawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOKER </t>
+  </si>
+  <si>
+    <t>Loker Karyawan (area dalam)</t>
+  </si>
+  <si>
+    <t>Fasum_Klinik, FM, kantin, &amp; Rest Area</t>
+  </si>
+  <si>
+    <t>Lampu penerangan Klinik, FM, kantin, &amp; Rest Area</t>
+  </si>
+  <si>
+    <t>Panel listrik area Sebelah timur klinik</t>
+  </si>
+  <si>
+    <t>Apar area Klinik, FM, kantin, &amp; Rest Area (Rest area)</t>
+  </si>
+  <si>
+    <t>Hydrant area Klinik, FM, kantin, &amp; Rest Area (Hydrant no. 18)</t>
+  </si>
+  <si>
+    <t>Fasum_Area parkiran KR2 &amp; Kr4</t>
+  </si>
+  <si>
+    <t>Lampu Area parkiran KR2 &amp; Kr4</t>
+  </si>
+  <si>
+    <t>Panel listrik belakang posko security</t>
+  </si>
+  <si>
+    <t>Apar area parkiran KR2 (Apar parkir B2)</t>
+  </si>
+  <si>
+    <t>Hydrant area parkiran KR2 (Hydrant parkir B3)</t>
+  </si>
+  <si>
+    <t>Parking sistem area parkiran KR2 &amp; Kr4</t>
+  </si>
+  <si>
+    <t>Fasum_KEC</t>
+  </si>
+  <si>
+    <t>Lampu sorot Area KEC</t>
+  </si>
+  <si>
+    <t>Apar area KEC</t>
+  </si>
+  <si>
+    <t>Hydrant area KEC ( Hydrant no 23 )</t>
+  </si>
+  <si>
+    <t>Parimeter_Menara 2</t>
+  </si>
+  <si>
+    <t>ADMP5CRI</t>
+  </si>
+  <si>
+    <t>ADMP5FAC</t>
+  </si>
+  <si>
+    <t>ADMP5OFC</t>
+  </si>
+  <si>
+    <t>ADMP5PAR</t>
+  </si>
+  <si>
+    <t>HYDRANT</t>
+  </si>
+  <si>
+    <t>Critical Area_Substation Press</t>
+  </si>
+  <si>
+    <t>ADMP5FAS</t>
+  </si>
+  <si>
+    <t>GAS STATION</t>
   </si>
 </sst>
 </file>
@@ -85,13 +661,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF212529"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +680,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,20 +710,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,20 +1053,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,43 +1090,2683 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D6" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
+      <c r="F33" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/assets/path_upload/upload_objek_.xlsx
+++ b/assets/path_upload/upload_objek_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="207">
   <si>
     <t>NAMA CHECKPOINT</t>
   </si>
@@ -396,9 +396,6 @@
     <t>Lampu PJU area Gate 3</t>
   </si>
   <si>
-    <t>GORONG - GORONG</t>
-  </si>
-  <si>
     <t>gorong-gorong area sekitar POS 3</t>
   </si>
   <si>
@@ -637,6 +634,12 @@
   </si>
   <si>
     <t>GAS STATION</t>
+  </si>
+  <si>
+    <t>MESIN PRODUKSI</t>
+  </si>
+  <si>
+    <t>GORONG-GORONG</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -750,6 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,17 +1059,17 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1094,16 +1097,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>205</v>
+      <c r="D2" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
@@ -1114,16 +1117,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>205</v>
+      <c r="D3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
@@ -1134,16 +1137,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>205</v>
+      <c r="D4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>10</v>
@@ -1154,15 +1157,15 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1174,16 +1177,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>202</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>13</v>
@@ -1194,16 +1197,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>202</v>
+      <c r="E7" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
@@ -1214,15 +1217,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1234,15 +1237,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1254,15 +1257,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1274,16 +1277,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>202</v>
+      <c r="E11" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>21</v>
@@ -1294,15 +1297,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1314,16 +1317,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>202</v>
+      <c r="E13" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>25</v>
@@ -1334,15 +1337,15 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1354,15 +1357,15 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1374,16 +1377,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>202</v>
+      <c r="E16" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>29</v>
@@ -1394,15 +1397,15 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1414,12 +1417,12 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1434,12 +1437,12 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1454,12 +1457,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -1474,16 +1477,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>202</v>
+      <c r="E21" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>38</v>
@@ -1494,12 +1497,12 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -1514,12 +1517,12 @@
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -1534,12 +1537,12 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -1554,12 +1557,12 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -1574,12 +1577,12 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -1594,12 +1597,12 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -1614,16 +1617,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>202</v>
+      <c r="E28" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>48</v>
@@ -1634,12 +1637,12 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -1654,12 +1657,12 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1674,12 +1677,12 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1694,16 +1697,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>202</v>
+      <c r="E32" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>53</v>
@@ -1714,18 +1717,18 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1734,12 +1737,12 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1754,12 +1757,12 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1774,16 +1777,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>202</v>
+      <c r="E36" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>60</v>
@@ -1794,12 +1797,12 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -1814,12 +1817,12 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -1834,12 +1837,12 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -1854,12 +1857,12 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -1874,12 +1877,12 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -1894,16 +1897,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>202</v>
+      <c r="E42" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>69</v>
@@ -1914,12 +1917,12 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -1934,12 +1937,12 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -1954,12 +1957,12 @@
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -1974,12 +1977,12 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -1994,12 +1997,12 @@
         <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -2014,16 +2017,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>202</v>
+      <c r="E48" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>76</v>
@@ -2034,12 +2037,12 @@
         <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -2054,16 +2057,16 @@
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>64</v>
+      <c r="E50" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>79</v>
@@ -2074,15 +2077,15 @@
         <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -2094,12 +2097,12 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -2114,12 +2117,12 @@
         <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -2134,16 +2137,16 @@
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>202</v>
+      <c r="E54" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>83</v>
@@ -2154,12 +2157,12 @@
         <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -2174,12 +2177,12 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -2194,7 +2197,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>54</v>
@@ -2214,12 +2217,12 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -2234,16 +2237,16 @@
         <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>202</v>
+      <c r="E59" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>89</v>
@@ -2254,12 +2257,12 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -2274,12 +2277,12 @@
         <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C61" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -2294,12 +2297,12 @@
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -2314,12 +2317,12 @@
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -2334,12 +2337,12 @@
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -2354,12 +2357,12 @@
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -2374,7 +2377,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>91</v>
@@ -2394,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>91</v>
@@ -2414,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>91</v>
@@ -2434,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>91</v>
@@ -2454,7 +2457,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>91</v>
@@ -2462,8 +2465,8 @@
       <c r="D70" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E70" s="14" t="s">
-        <v>202</v>
+      <c r="E70" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>105</v>
@@ -2474,7 +2477,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>91</v>
@@ -2482,7 +2485,7 @@
       <c r="D71" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -2494,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>91</v>
@@ -2514,7 +2517,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>91</v>
@@ -2534,7 +2537,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>91</v>
@@ -2554,7 +2557,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>91</v>
@@ -2574,7 +2577,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>91</v>
@@ -2594,7 +2597,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>91</v>
@@ -2614,12 +2617,12 @@
         <v>7</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="11" t="s">
         <v>112</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -2634,7 +2637,7 @@
         <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>91</v>
@@ -2654,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>91</v>
@@ -2674,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>118</v>
@@ -2694,7 +2697,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>118</v>
@@ -2714,7 +2717,7 @@
         <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>118</v>
@@ -2734,7 +2737,7 @@
         <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>118</v>
@@ -2742,11 +2745,11 @@
       <c r="D84" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2754,7 +2757,7 @@
         <v>7</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>118</v>
@@ -2763,10 +2766,10 @@
         <v>119</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2774,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>118</v>
@@ -2782,11 +2785,11 @@
       <c r="D86" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2794,19 +2797,19 @@
         <v>7</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2814,19 +2817,19 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2834,19 +2837,19 @@
         <v>7</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2854,19 +2857,19 @@
         <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2874,19 +2877,19 @@
         <v>7</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2894,19 +2897,19 @@
         <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2914,19 +2917,19 @@
         <v>7</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="12" t="s">
-        <v>138</v>
+      <c r="D93" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,19 +2937,19 @@
         <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,19 +2957,19 @@
         <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2974,19 +2977,19 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>125</v>
+        <v>137</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2994,19 +2997,19 @@
         <v>7</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3014,19 +3017,19 @@
         <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3034,19 +3037,19 @@
         <v>7</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>202</v>
+        <v>137</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3054,19 +3057,19 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3074,19 +3077,19 @@
         <v>7</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E101" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3094,19 +3097,19 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E102" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3114,19 +3117,19 @@
         <v>7</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3134,19 +3137,19 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E104" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3154,19 +3157,19 @@
         <v>7</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3174,19 +3177,19 @@
         <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>202</v>
+        <v>145</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3194,19 +3197,19 @@
         <v>7</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E107" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3214,19 +3217,19 @@
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D108" s="12" t="s">
-        <v>197</v>
+      <c r="D108" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3234,19 +3237,19 @@
         <v>7</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D109" s="12" t="s">
-        <v>197</v>
+      <c r="D109" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,19 +3257,19 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D110" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>125</v>
+      <c r="D110" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3274,19 +3277,19 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3294,19 +3297,19 @@
         <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3314,19 +3317,19 @@
         <v>7</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>125</v>
+        <v>161</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3334,19 +3337,19 @@
         <v>7</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D114" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3354,19 +3357,19 @@
         <v>7</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3374,19 +3377,19 @@
         <v>7</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>125</v>
+        <v>165</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3394,19 +3397,19 @@
         <v>7</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E117" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3414,19 +3417,19 @@
         <v>7</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3434,19 +3437,19 @@
         <v>7</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3454,19 +3457,19 @@
         <v>7</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3474,19 +3477,19 @@
         <v>7</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>202</v>
+      <c r="E121" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,19 +3497,19 @@
         <v>7</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E122" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3514,19 +3517,19 @@
         <v>7</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E123" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3534,19 +3537,19 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3554,19 +3557,19 @@
         <v>7</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3574,19 +3577,19 @@
         <v>7</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E126" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E126" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3594,19 +3597,19 @@
         <v>7</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>202</v>
+        <v>181</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3614,19 +3617,19 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3634,19 +3637,19 @@
         <v>7</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E129" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E129" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3654,19 +3657,19 @@
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>172</v>
+        <v>203</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E130" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E130" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3674,19 +3677,19 @@
         <v>7</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>172</v>
+        <v>203</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>202</v>
+        <v>186</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3694,19 +3697,19 @@
         <v>7</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>172</v>
+        <v>203</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3714,19 +3717,19 @@
         <v>7</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>172</v>
+        <v>203</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3734,19 +3737,19 @@
         <v>7</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>172</v>
+        <v>203</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3754,22 +3757,23 @@
         <v>7</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>172</v>
+        <v>203</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>202</v>
+        <v>192</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F135"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
